--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H2">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.956761350162198</v>
+        <v>0.9623736666666666</v>
       </c>
       <c r="N2">
-        <v>0.956761350162198</v>
+        <v>2.887121</v>
       </c>
       <c r="O2">
-        <v>0.2278623194810874</v>
+        <v>0.2222122422038097</v>
       </c>
       <c r="P2">
-        <v>0.2278623194810874</v>
+        <v>0.2222122422038097</v>
       </c>
       <c r="Q2">
-        <v>186.2283090205961</v>
+        <v>188.0818719083563</v>
       </c>
       <c r="R2">
-        <v>186.2283090205961</v>
+        <v>1692.736847175207</v>
       </c>
       <c r="S2">
-        <v>0.07092071126991796</v>
+        <v>0.06879117120249237</v>
       </c>
       <c r="T2">
-        <v>0.07092071126991796</v>
+        <v>0.06879117120249235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H3">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.81493222365129</v>
+        <v>1.882020666666667</v>
       </c>
       <c r="N3">
-        <v>1.81493222365129</v>
+        <v>5.646062</v>
       </c>
       <c r="O3">
-        <v>0.4322443272944099</v>
+        <v>0.4345588898566171</v>
       </c>
       <c r="P3">
-        <v>0.4322443272944099</v>
+        <v>0.4345588898566171</v>
       </c>
       <c r="Q3">
-        <v>353.2665266424808</v>
+        <v>367.8134410960393</v>
       </c>
       <c r="R3">
-        <v>353.2665266424808</v>
+        <v>3310.320969864354</v>
       </c>
       <c r="S3">
-        <v>0.1345333234732175</v>
+        <v>0.1345282091266305</v>
       </c>
       <c r="T3">
-        <v>0.1345333234732175</v>
+        <v>0.1345282091266304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H4">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I4">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J4">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.265784813678353</v>
+        <v>0.3112836666666667</v>
       </c>
       <c r="N4">
-        <v>0.265784813678353</v>
+        <v>0.933851</v>
       </c>
       <c r="O4">
-        <v>0.0632993213169942</v>
+        <v>0.07187545121741344</v>
       </c>
       <c r="P4">
-        <v>0.0632993213169942</v>
+        <v>0.07187545121741344</v>
       </c>
       <c r="Q4">
-        <v>51.73354505413789</v>
+        <v>60.83584448434633</v>
       </c>
       <c r="R4">
-        <v>51.73354505413789</v>
+        <v>547.522600359117</v>
       </c>
       <c r="S4">
-        <v>0.01970151493642158</v>
+        <v>0.02225078339931673</v>
       </c>
       <c r="T4">
-        <v>0.01970151493642158</v>
+        <v>0.02225078339931672</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H5">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I5">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J5">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.318881377638136</v>
+        <v>0.3273113333333333</v>
       </c>
       <c r="N5">
-        <v>0.318881377638136</v>
+        <v>0.981934</v>
       </c>
       <c r="O5">
-        <v>0.07594480100563442</v>
+        <v>0.07557624215824543</v>
       </c>
       <c r="P5">
-        <v>0.07594480100563442</v>
+        <v>0.07557624215824543</v>
       </c>
       <c r="Q5">
-        <v>62.06849777704838</v>
+        <v>63.96821775410866</v>
       </c>
       <c r="R5">
-        <v>62.06849777704838</v>
+        <v>575.713959786978</v>
       </c>
       <c r="S5">
-        <v>0.02363734081544367</v>
+        <v>0.02339645269579909</v>
       </c>
       <c r="T5">
-        <v>0.02363734081544367</v>
+        <v>0.02339645269579908</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H6">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I6">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J6">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.842497476124469</v>
+        <v>0.8478866666666667</v>
       </c>
       <c r="N6">
-        <v>0.842497476124469</v>
+        <v>2.54366</v>
       </c>
       <c r="O6">
-        <v>0.200649230901874</v>
+        <v>0.1957771745639142</v>
       </c>
       <c r="P6">
-        <v>0.200649230901874</v>
+        <v>0.1957771745639142</v>
       </c>
       <c r="Q6">
-        <v>163.9874774479356</v>
+        <v>165.7070605279133</v>
       </c>
       <c r="R6">
-        <v>163.9874774479356</v>
+        <v>1491.36354475122</v>
       </c>
       <c r="S6">
-        <v>0.06245080890833297</v>
+        <v>0.06060755698875515</v>
       </c>
       <c r="T6">
-        <v>0.06245080890833297</v>
+        <v>0.06060755698875514</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H7">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J7">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.956761350162198</v>
+        <v>0.9623736666666666</v>
       </c>
       <c r="N7">
-        <v>0.956761350162198</v>
+        <v>2.887121</v>
       </c>
       <c r="O7">
-        <v>0.2278623194810874</v>
+        <v>0.2222122422038097</v>
       </c>
       <c r="P7">
-        <v>0.2278623194810874</v>
+        <v>0.2222122422038097</v>
       </c>
       <c r="Q7">
-        <v>76.31830327301078</v>
+        <v>76.82364584874644</v>
       </c>
       <c r="R7">
-        <v>76.31830327301078</v>
+        <v>691.4128126387178</v>
       </c>
       <c r="S7">
-        <v>0.0290640471338685</v>
+        <v>0.02809834100628153</v>
       </c>
       <c r="T7">
-        <v>0.0290640471338685</v>
+        <v>0.02809834100628152</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H8">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J8">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.81493222365129</v>
+        <v>1.882020666666667</v>
       </c>
       <c r="N8">
-        <v>1.81493222365129</v>
+        <v>5.646062</v>
       </c>
       <c r="O8">
-        <v>0.4322443272944099</v>
+        <v>0.4345588898566171</v>
       </c>
       <c r="P8">
-        <v>0.4322443272944099</v>
+        <v>0.4345588898566171</v>
       </c>
       <c r="Q8">
-        <v>144.772306951046</v>
+        <v>150.2365392818884</v>
       </c>
       <c r="R8">
-        <v>144.772306951046</v>
+        <v>1352.128853536996</v>
       </c>
       <c r="S8">
-        <v>0.05513315905166462</v>
+        <v>0.05494919520817033</v>
       </c>
       <c r="T8">
-        <v>0.05513315905166462</v>
+        <v>0.05494919520817031</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H9">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J9">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.265784813678353</v>
+        <v>0.3112836666666667</v>
       </c>
       <c r="N9">
-        <v>0.265784813678353</v>
+        <v>0.933851</v>
       </c>
       <c r="O9">
-        <v>0.0632993213169942</v>
+        <v>0.07187545121741344</v>
       </c>
       <c r="P9">
-        <v>0.0632993213169942</v>
+        <v>0.07187545121741344</v>
       </c>
       <c r="Q9">
-        <v>21.20094630936592</v>
+        <v>24.84891991000644</v>
       </c>
       <c r="R9">
-        <v>21.20094630936592</v>
+        <v>223.640279190058</v>
       </c>
       <c r="S9">
-        <v>0.008073886294533678</v>
+        <v>0.009088522388586075</v>
       </c>
       <c r="T9">
-        <v>0.008073886294533678</v>
+        <v>0.009088522388586073</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H10">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I10">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J10">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.318881377638136</v>
+        <v>0.3273113333333333</v>
       </c>
       <c r="N10">
-        <v>0.318881377638136</v>
+        <v>0.981934</v>
       </c>
       <c r="O10">
-        <v>0.07594480100563442</v>
+        <v>0.07557624215824543</v>
       </c>
       <c r="P10">
-        <v>0.07594480100563442</v>
+        <v>0.07557624215824543</v>
       </c>
       <c r="Q10">
-        <v>25.43631772184048</v>
+        <v>26.12836450666356</v>
       </c>
       <c r="R10">
-        <v>25.43631772184048</v>
+        <v>235.155280559972</v>
       </c>
       <c r="S10">
-        <v>0.009686828787781321</v>
+        <v>0.009556480790954745</v>
       </c>
       <c r="T10">
-        <v>0.009686828787781321</v>
+        <v>0.009556480790954744</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H11">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I11">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J11">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.842497476124469</v>
+        <v>0.8478866666666667</v>
       </c>
       <c r="N11">
-        <v>0.842497476124469</v>
+        <v>2.54366</v>
       </c>
       <c r="O11">
-        <v>0.200649230901874</v>
+        <v>0.1957771745639142</v>
       </c>
       <c r="P11">
-        <v>0.200649230901874</v>
+        <v>0.1957771745639142</v>
       </c>
       <c r="Q11">
-        <v>67.20377853757687</v>
+        <v>67.68446317269778</v>
       </c>
       <c r="R11">
-        <v>67.20377853757687</v>
+        <v>609.1601685542799</v>
       </c>
       <c r="S11">
-        <v>0.02559299281068961</v>
+        <v>0.0247556739340118</v>
       </c>
       <c r="T11">
-        <v>0.02559299281068961</v>
+        <v>0.0247556739340118</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H12">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I12">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J12">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.956761350162198</v>
+        <v>0.9623736666666666</v>
       </c>
       <c r="N12">
-        <v>0.956761350162198</v>
+        <v>2.887121</v>
       </c>
       <c r="O12">
-        <v>0.2278623194810874</v>
+        <v>0.2222122422038097</v>
       </c>
       <c r="P12">
-        <v>0.2278623194810874</v>
+        <v>0.2222122422038097</v>
       </c>
       <c r="Q12">
-        <v>155.2048352789126</v>
+        <v>156.3969398647481</v>
       </c>
       <c r="R12">
-        <v>155.2048352789126</v>
+        <v>1407.572458782733</v>
       </c>
       <c r="S12">
-        <v>0.05910614432574579</v>
+        <v>0.057202369141796</v>
       </c>
       <c r="T12">
-        <v>0.05910614432574579</v>
+        <v>0.05720236914179599</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H13">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I13">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J13">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.81493222365129</v>
+        <v>1.882020666666667</v>
       </c>
       <c r="N13">
-        <v>1.81493222365129</v>
+        <v>5.646062</v>
       </c>
       <c r="O13">
-        <v>0.4322443272944099</v>
+        <v>0.4345588898566171</v>
       </c>
       <c r="P13">
-        <v>0.4322443272944099</v>
+        <v>0.4345588898566171</v>
       </c>
       <c r="Q13">
-        <v>294.4164255448188</v>
+        <v>305.8502983029251</v>
       </c>
       <c r="R13">
-        <v>294.4164255448188</v>
+        <v>2752.652684726326</v>
       </c>
       <c r="S13">
-        <v>0.1121216340254484</v>
+        <v>0.1118651150130067</v>
       </c>
       <c r="T13">
-        <v>0.1121216340254484</v>
+        <v>0.1118651150130067</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H14">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I14">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J14">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.265784813678353</v>
+        <v>0.3112836666666667</v>
       </c>
       <c r="N14">
-        <v>0.265784813678353</v>
+        <v>0.933851</v>
       </c>
       <c r="O14">
-        <v>0.0632993213169942</v>
+        <v>0.07187545121741344</v>
       </c>
       <c r="P14">
-        <v>0.0632993213169942</v>
+        <v>0.07187545121741344</v>
       </c>
       <c r="Q14">
-        <v>43.11533719416241</v>
+        <v>50.58722467455811</v>
       </c>
       <c r="R14">
-        <v>43.11533719416241</v>
+        <v>455.285022071023</v>
       </c>
       <c r="S14">
-        <v>0.01641947132814362</v>
+        <v>0.01850233835902109</v>
       </c>
       <c r="T14">
-        <v>0.01641947132814362</v>
+        <v>0.01850233835902109</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H15">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I15">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J15">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.318881377638136</v>
+        <v>0.3273113333333333</v>
       </c>
       <c r="N15">
-        <v>0.318881377638136</v>
+        <v>0.981934</v>
       </c>
       <c r="O15">
-        <v>0.07594480100563442</v>
+        <v>0.07557624215824543</v>
       </c>
       <c r="P15">
-        <v>0.07594480100563442</v>
+        <v>0.07557624215824543</v>
       </c>
       <c r="Q15">
-        <v>51.7286068061271</v>
+        <v>53.19190735308688</v>
       </c>
       <c r="R15">
-        <v>51.7286068061271</v>
+        <v>478.727166177782</v>
       </c>
       <c r="S15">
-        <v>0.01969963431975703</v>
+        <v>0.01945500418613571</v>
       </c>
       <c r="T15">
-        <v>0.01969963431975703</v>
+        <v>0.01945500418613571</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H16">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I16">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J16">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.842497476124469</v>
+        <v>0.8478866666666667</v>
       </c>
       <c r="N16">
-        <v>0.842497476124469</v>
+        <v>2.54366</v>
       </c>
       <c r="O16">
-        <v>0.200649230901874</v>
+        <v>0.1957771745639142</v>
       </c>
       <c r="P16">
-        <v>0.200649230901874</v>
+        <v>0.1957771745639142</v>
       </c>
       <c r="Q16">
-        <v>136.6690679787916</v>
+        <v>137.7914677134644</v>
       </c>
       <c r="R16">
-        <v>136.6690679787916</v>
+        <v>1240.12320942118</v>
       </c>
       <c r="S16">
-        <v>0.05204722934245565</v>
+        <v>0.05039739529144114</v>
       </c>
       <c r="T16">
-        <v>0.05204722934245565</v>
+        <v>0.05039739529144114</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H17">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I17">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J17">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.956761350162198</v>
+        <v>0.9623736666666666</v>
       </c>
       <c r="N17">
-        <v>0.956761350162198</v>
+        <v>2.887121</v>
       </c>
       <c r="O17">
-        <v>0.2278623194810874</v>
+        <v>0.2222122422038097</v>
       </c>
       <c r="P17">
-        <v>0.2278623194810874</v>
+        <v>0.2222122422038097</v>
       </c>
       <c r="Q17">
-        <v>151.773336278398</v>
+        <v>153.7786903484449</v>
       </c>
       <c r="R17">
-        <v>151.773336278398</v>
+        <v>1384.008213136004</v>
       </c>
       <c r="S17">
-        <v>0.05779933790561344</v>
+        <v>0.05624474122742362</v>
       </c>
       <c r="T17">
-        <v>0.05779933790561344</v>
+        <v>0.0562447412274236</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H18">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I18">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J18">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.81493222365129</v>
+        <v>1.882020666666667</v>
       </c>
       <c r="N18">
-        <v>1.81493222365129</v>
+        <v>5.646062</v>
       </c>
       <c r="O18">
-        <v>0.4322443272944099</v>
+        <v>0.4345588898566171</v>
       </c>
       <c r="P18">
-        <v>0.4322443272944099</v>
+        <v>0.4345588898566171</v>
       </c>
       <c r="Q18">
-        <v>287.9070299568749</v>
+        <v>300.7300421375209</v>
       </c>
       <c r="R18">
-        <v>287.9070299568749</v>
+        <v>2706.570379237688</v>
       </c>
       <c r="S18">
-        <v>0.1096426824231805</v>
+        <v>0.1099923751529603</v>
       </c>
       <c r="T18">
-        <v>0.1096426824231805</v>
+        <v>0.1099923751529603</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H19">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I19">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J19">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.265784813678353</v>
+        <v>0.3112836666666667</v>
       </c>
       <c r="N19">
-        <v>0.265784813678353</v>
+        <v>0.933851</v>
       </c>
       <c r="O19">
-        <v>0.0632993213169942</v>
+        <v>0.07187545121741344</v>
       </c>
       <c r="P19">
-        <v>0.0632993213169942</v>
+        <v>0.07187545121741344</v>
       </c>
       <c r="Q19">
-        <v>42.16207928681215</v>
+        <v>49.7403412467249</v>
       </c>
       <c r="R19">
-        <v>42.16207928681215</v>
+        <v>447.663071220524</v>
       </c>
       <c r="S19">
-        <v>0.01605644527067415</v>
+        <v>0.01819258972518671</v>
       </c>
       <c r="T19">
-        <v>0.01605644527067415</v>
+        <v>0.0181925897251867</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H20">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I20">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J20">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.318881377638136</v>
+        <v>0.3273113333333333</v>
       </c>
       <c r="N20">
-        <v>0.318881377638136</v>
+        <v>0.981934</v>
       </c>
       <c r="O20">
-        <v>0.07594480100563442</v>
+        <v>0.07557624215824543</v>
       </c>
       <c r="P20">
-        <v>0.07594480100563442</v>
+        <v>0.07557624215824543</v>
       </c>
       <c r="Q20">
-        <v>50.58491394221441</v>
+        <v>52.30141879353513</v>
       </c>
       <c r="R20">
-        <v>50.58491394221441</v>
+        <v>470.7127691418161</v>
       </c>
       <c r="S20">
-        <v>0.01926408554734109</v>
+        <v>0.01912930692285117</v>
       </c>
       <c r="T20">
-        <v>0.01926408554734109</v>
+        <v>0.01912930692285117</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H21">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I21">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J21">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.842497476124469</v>
+        <v>0.8478866666666667</v>
       </c>
       <c r="N21">
-        <v>0.842497476124469</v>
+        <v>2.54366</v>
       </c>
       <c r="O21">
-        <v>0.200649230901874</v>
+        <v>0.1957771745639142</v>
       </c>
       <c r="P21">
-        <v>0.200649230901874</v>
+        <v>0.1957771745639142</v>
       </c>
       <c r="Q21">
-        <v>133.6473852501079</v>
+        <v>135.4846933993156</v>
       </c>
       <c r="R21">
-        <v>133.6473852501079</v>
+        <v>1219.36224059384</v>
       </c>
       <c r="S21">
-        <v>0.05089649189830815</v>
+        <v>0.04955368980744083</v>
       </c>
       <c r="T21">
-        <v>0.05089649189830815</v>
+        <v>0.04955368980744082</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.1132697218668</v>
+        <v>33.73857866666666</v>
       </c>
       <c r="H22">
-        <v>30.1132697218668</v>
+        <v>101.215736</v>
       </c>
       <c r="I22">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="J22">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.956761350162198</v>
+        <v>0.9623736666666666</v>
       </c>
       <c r="N22">
-        <v>0.956761350162198</v>
+        <v>2.887121</v>
       </c>
       <c r="O22">
-        <v>0.2278623194810874</v>
+        <v>0.2222122422038097</v>
       </c>
       <c r="P22">
-        <v>0.2278623194810874</v>
+        <v>0.2222122422038097</v>
       </c>
       <c r="Q22">
-        <v>28.81121259689171</v>
+        <v>32.46911965956177</v>
       </c>
       <c r="R22">
-        <v>28.81121259689171</v>
+        <v>292.2220769360559</v>
       </c>
       <c r="S22">
-        <v>0.01097207884594172</v>
+        <v>0.0118756196258162</v>
       </c>
       <c r="T22">
-        <v>0.01097207884594172</v>
+        <v>0.0118756196258162</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.1132697218668</v>
+        <v>33.73857866666666</v>
       </c>
       <c r="H23">
-        <v>30.1132697218668</v>
+        <v>101.215736</v>
       </c>
       <c r="I23">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="J23">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.81493222365129</v>
+        <v>1.882020666666667</v>
       </c>
       <c r="N23">
-        <v>1.81493222365129</v>
+        <v>5.646062</v>
       </c>
       <c r="O23">
-        <v>0.4322443272944099</v>
+        <v>0.4345588898566171</v>
       </c>
       <c r="P23">
-        <v>0.4322443272944099</v>
+        <v>0.4345588898566171</v>
       </c>
       <c r="Q23">
-        <v>54.65354357771877</v>
+        <v>63.49670231462576</v>
       </c>
       <c r="R23">
-        <v>54.65354357771877</v>
+        <v>571.470320831632</v>
       </c>
       <c r="S23">
-        <v>0.02081352832089881</v>
+        <v>0.02322399535584933</v>
       </c>
       <c r="T23">
-        <v>0.02081352832089881</v>
+        <v>0.02322399535584932</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.1132697218668</v>
+        <v>33.73857866666666</v>
       </c>
       <c r="H24">
-        <v>30.1132697218668</v>
+        <v>101.215736</v>
       </c>
       <c r="I24">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="J24">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.265784813678353</v>
+        <v>0.3112836666666667</v>
       </c>
       <c r="N24">
-        <v>0.265784813678353</v>
+        <v>0.933851</v>
       </c>
       <c r="O24">
-        <v>0.0632993213169942</v>
+        <v>0.07187545121741344</v>
       </c>
       <c r="P24">
-        <v>0.0632993213169942</v>
+        <v>0.07187545121741344</v>
       </c>
       <c r="Q24">
-        <v>8.003649782272356</v>
+        <v>10.50226847548178</v>
       </c>
       <c r="R24">
-        <v>8.003649782272356</v>
+        <v>94.52041627933599</v>
       </c>
       <c r="S24">
-        <v>0.003048003487221175</v>
+        <v>0.003841217345302842</v>
       </c>
       <c r="T24">
-        <v>0.003048003487221175</v>
+        <v>0.003841217345302841</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.1132697218668</v>
+        <v>33.73857866666666</v>
       </c>
       <c r="H25">
-        <v>30.1132697218668</v>
+        <v>101.215736</v>
       </c>
       <c r="I25">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="J25">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.318881377638136</v>
+        <v>0.3273113333333333</v>
       </c>
       <c r="N25">
-        <v>0.318881377638136</v>
+        <v>0.981934</v>
       </c>
       <c r="O25">
-        <v>0.07594480100563442</v>
+        <v>0.07557624215824543</v>
       </c>
       <c r="P25">
-        <v>0.07594480100563442</v>
+        <v>0.07557624215824543</v>
       </c>
       <c r="Q25">
-        <v>9.602560934097655</v>
+        <v>11.04301916815822</v>
       </c>
       <c r="R25">
-        <v>9.602560934097655</v>
+        <v>99.38717251342399</v>
       </c>
       <c r="S25">
-        <v>0.00365691153531129</v>
+        <v>0.004038997562504726</v>
       </c>
       <c r="T25">
-        <v>0.00365691153531129</v>
+        <v>0.004038997562504725</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>30.1132697218668</v>
+        <v>33.73857866666666</v>
       </c>
       <c r="H26">
-        <v>30.1132697218668</v>
+        <v>101.215736</v>
       </c>
       <c r="I26">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="J26">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.842497476124469</v>
+        <v>0.8478866666666667</v>
       </c>
       <c r="N26">
-        <v>0.842497476124469</v>
+        <v>2.54366</v>
       </c>
       <c r="O26">
-        <v>0.200649230901874</v>
+        <v>0.1957771745639142</v>
       </c>
       <c r="P26">
-        <v>0.200649230901874</v>
+        <v>0.1957771745639142</v>
       </c>
       <c r="Q26">
-        <v>25.37035373852817</v>
+        <v>28.60649100375111</v>
       </c>
       <c r="R26">
-        <v>25.37035373852817</v>
+        <v>257.45841903376</v>
       </c>
       <c r="S26">
-        <v>0.009661707942087617</v>
+        <v>0.01046285854226534</v>
       </c>
       <c r="T26">
-        <v>0.009661707942087617</v>
+        <v>0.01046285854226533</v>
       </c>
     </row>
   </sheetData>
